--- a/target/classes/credentials.xlsx
+++ b/target/classes/credentials.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="10">
   <si>
     <t xml:space="preserve">standard_user</t>
   </si>

--- a/target/classes/credentials.xlsx
+++ b/target/classes/credentials.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="10">
   <si>
     <t xml:space="preserve">standard_user</t>
   </si>

--- a/target/classes/credentials.xlsx
+++ b/target/classes/credentials.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="10">
   <si>
     <t xml:space="preserve">standard_user</t>
   </si>

--- a/target/classes/credentials.xlsx
+++ b/target/classes/credentials.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="10">
   <si>
     <t xml:space="preserve">standard_user</t>
   </si>

--- a/target/classes/credentials.xlsx
+++ b/target/classes/credentials.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="10">
   <si>
     <t xml:space="preserve">standard_user</t>
   </si>
